--- a/biology/Zoologie/Homonota_borellii/Homonota_borellii.xlsx
+++ b/biology/Zoologie/Homonota_borellii/Homonota_borellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homonota borellii est une espèce de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homonota borellii est une espèce de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans les provinces de Salta, du Chaco, de La Rioja, de Buenos Aires et de Córdoba[1]. Sa présence est incertaine en Bolivie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans les provinces de Salta, du Chaco, de La Rioja, de Buenos Aires et de Córdoba. Sa présence est incertaine en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2], Peracca indique que le spécimen en sa possession mesure 79 mm dont 46 mm pour la queue, tout en précisant que la longueur de celle-ci, incomplète, a été estimée. Son dos est gris cendré et sa face ventrale gris cendré clair. Une bande noire s'étend de la narine jusqu'à l’œil.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, Peracca indique que le spécimen en sa possession mesure 79 mm dont 46 mm pour la queue, tout en précisant que la longueur de celle-ci, incomplète, a été estimée. Son dos est gris cendré et sa face ventrale gris cendré clair. Une bande noire s'étend de la narine jusqu'à l’œil.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologue Alfredo Borelli (en)[3] (1858-1943).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologue Alfredo Borelli (en) (1858-1943).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) Peracca, 1897 : Rettili e Anfibi. Viaggio del Dott. Alfredo Borelli nel Chaco boliviano e nella Repubblica Argentina. Bollettino dei Musei di Zoologia ed Anatomia Comparata della R. Università di Torino, vol. 12, no 274, p. 1-19 (texte intégral).</t>
         </is>
